--- a/test-scenario/Sauce Demo - Test Case.xlsx
+++ b/test-scenario/Sauce Demo - Test Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeProject\Java\MyProject\CucumberBDDProject\CucumberProject\test-scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C44F58A-391F-4731-9E47-E7FE62BED9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20060FD-7A2D-41BE-8E39-1F1D791389C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{293820DC-2992-4C9C-B994-FC6B8BF047EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{293820DC-2992-4C9C-B994-FC6B8BF047EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>No</t>
   </si>
@@ -96,12 +96,6 @@
   </si>
   <si>
     <t>As a User I can't login If I don't fill the password</t>
-  </si>
-  <si>
-    <t>Home Feature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a </t>
   </si>
   <si>
     <t>Verify that the User can login with valid credentials</t>
@@ -175,9 +169,6 @@
       </rPr>
       <t>' button</t>
     </r>
-  </si>
-  <si>
-    <t>User successfully login and redirect to the home page</t>
   </si>
   <si>
     <r>
@@ -423,9 +414,6 @@
     <t>LGN-04</t>
   </si>
   <si>
-    <t>HME-05</t>
-  </si>
-  <si>
     <t>As a User I can't login If I don't fill username and password</t>
   </si>
   <si>
@@ -501,6 +489,298 @@
       </rPr>
       <t xml:space="preserve"> = </t>
     </r>
+  </si>
+  <si>
+    <t>Product Feature</t>
+  </si>
+  <si>
+    <t>PRD-05</t>
+  </si>
+  <si>
+    <t>As a User I can see products is loaded after login successful</t>
+  </si>
+  <si>
+    <t>Verify that the User can see all products loaded</t>
+  </si>
+  <si>
+    <t>1. User successfully login</t>
+  </si>
+  <si>
+    <t>User successfully login and redirect to the product page</t>
+  </si>
+  <si>
+    <t>PRD-06</t>
+  </si>
+  <si>
+    <t>As a User I want to add product to cart</t>
+  </si>
+  <si>
+    <t>Verify that the User can add product to the cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Verify that product page open correctly after successful login
+</t>
+  </si>
+  <si>
+    <t>1. User successfully login and redirected to the product page</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Click '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ADD TO CART'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the first product
+2. Click on the shopping cart icon in the top right corner</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Environment: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.saucedemo.com/v1/index.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = Sauce Labs Backpack </t>
+    </r>
+  </si>
+  <si>
+    <t>The product was successfully added and added product was visible</t>
+  </si>
+  <si>
+    <t>The product was successfully added to the cart and is visible in the cart  list</t>
+  </si>
+  <si>
+    <t>PRD-07</t>
+  </si>
+  <si>
+    <t>As a User I want to add more product to the cart</t>
+  </si>
+  <si>
+    <t>Verify that the User can add more product to the cart</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Click '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONTINUE SHOPPING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' 
+2. Click '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ADD TO CART</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">' for the second product
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Environment: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.saucedemo.com/v1/index.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = Sauce Labs Bike Light</t>
+    </r>
+  </si>
+  <si>
+    <t>The product was successfully added to the cart and is visible in the cart list</t>
+  </si>
+  <si>
+    <t>1. User successfully login and redirected to the product page
+2. User already add the first product to the cart 
+3. 'Your cart' page is open</t>
+  </si>
+  <si>
+    <t>PDR-08</t>
+  </si>
+  <si>
+    <t>AS a User I want to remove product from the cart</t>
+  </si>
+  <si>
+    <t>Verify that the User can remove added product from the cart</t>
+  </si>
+  <si>
+    <t>1. 'Your cart' page is open</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Click '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REMOVE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Environment: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.saucedemo.com/v1/index.html</t>
+    </r>
+  </si>
+  <si>
+    <t>The product was successfully removed from the cart</t>
+  </si>
+  <si>
+    <t>Product successfully removed</t>
   </si>
 </sst>
 </file>
@@ -911,14 +1191,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089AA1EE-42FB-4881-8A47-006ECAE7E7B0}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -988,22 +1268,22 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M2" s="3"/>
     </row>
@@ -1018,27 +1298,27 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M3" s="3"/>
     </row>
@@ -1058,22 +1338,22 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M4" s="3"/>
     </row>
@@ -1085,7 +1365,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -1093,82 +1373,163 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="3"/>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="3"/>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="3"/>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1473,5 +1834,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test-scenario/Sauce Demo - Test Case.xlsx
+++ b/test-scenario/Sauce Demo - Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeProject\Java\MyProject\CucumberBDDProject\CucumberProject\test-scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20060FD-7A2D-41BE-8E39-1F1D791389C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A1E465-A1A7-4982-ABC5-8E5CF4559EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{293820DC-2992-4C9C-B994-FC6B8BF047EE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>No</t>
   </si>
@@ -552,6 +552,159 @@
     </r>
   </si>
   <si>
+    <t>The product was successfully added and added product was visible</t>
+  </si>
+  <si>
+    <t>The product was successfully added to the cart and is visible in the cart  list</t>
+  </si>
+  <si>
+    <t>Verify that the User can remove added product from the cart</t>
+  </si>
+  <si>
+    <t>1. 'Your cart' page is open</t>
+  </si>
+  <si>
+    <t>The product was successfully removed from the cart</t>
+  </si>
+  <si>
+    <t>Product successfully removed</t>
+  </si>
+  <si>
+    <t>Checkout Feature</t>
+  </si>
+  <si>
+    <t>CHK-09</t>
+  </si>
+  <si>
+    <t>As a User I want to remove product from the cart</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Click 'ADD TO CART' for the first product
+2. Click on the shopping cart icon in the top right corner
+3. Click '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REMOVE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' button</t>
+    </r>
+  </si>
+  <si>
+    <t>As a User I want to checkout product</t>
+  </si>
+  <si>
+    <t>1. User successfully login and redirected to the product page
+2. User successfully add the product
+3. User is on the cart page</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Click 'ADD TO CART' for the first product
+2. Click on the shopping cart icon in the top right corner
+3. Click '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CHECKOUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' button
+4. Fill user information data
+5. Click '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONTINUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">' </t>
+    </r>
+  </si>
+  <si>
+    <t>The user is redirected to the checkout overview page</t>
+  </si>
+  <si>
+    <t>Rredirected to the checkout overview page</t>
+  </si>
+  <si>
+    <t>Verifies that the user can enter customer information for checkout.</t>
+  </si>
+  <si>
+    <t>Verifies that the user can complete the checkout process.</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Check the order details (products, price, tax, total).
+2. Click the ‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FINISH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>’ button.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Environment: 
 </t>
@@ -565,7 +718,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>https://www.saucedemo.com/v1/index.html</t>
+      <t>https://www.saucedemo.com/v1/checkout-step-two.html</t>
     </r>
     <r>
       <rPr>
@@ -578,6 +731,45 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>1. User successfully login and redirected to the product page
+2. User successfully add the product
+3. User is on Checkout: Overview page</t>
+  </si>
+  <si>
+    <t>The order is successfully processed and a confirmation message ‘THANK YOU FOR YOUR ORDER’ appears.</t>
+  </si>
+  <si>
+    <t>Successful order and confirmation message displayed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Environment: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.saucedemo.com/v1/inventory.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -601,23 +793,31 @@
     </r>
   </si>
   <si>
-    <t>The product was successfully added and added product was visible</t>
-  </si>
-  <si>
-    <t>The product was successfully added to the cart and is visible in the cart  list</t>
-  </si>
-  <si>
-    <t>PRD-07</t>
-  </si>
-  <si>
-    <t>As a User I want to add more product to the cart</t>
-  </si>
-  <si>
-    <t>Verify that the User can add more product to the cart</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Click '</t>
+    <r>
+      <t xml:space="preserve">Environment: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.saucedemo.com/v1/cart.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -628,18 +828,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CONTINUE SHOPPING</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' 
-2. Click '</t>
+      <t xml:space="preserve">First Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Injas
+</t>
     </r>
     <r>
       <rPr>
@@ -650,18 +850,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ADD TO CART</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">' for the second product
-</t>
+      <t xml:space="preserve">Last Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mahendra Berutu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Zip/Postal Code: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9999</t>
     </r>
   </si>
   <si>
@@ -678,109 +899,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>https://www.saucedemo.com/v1/index.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = Sauce Labs Bike Light</t>
-    </r>
-  </si>
-  <si>
-    <t>The product was successfully added to the cart and is visible in the cart list</t>
-  </si>
-  <si>
-    <t>1. User successfully login and redirected to the product page
-2. User already add the first product to the cart 
-3. 'Your cart' page is open</t>
-  </si>
-  <si>
-    <t>PDR-08</t>
-  </si>
-  <si>
-    <t>AS a User I want to remove product from the cart</t>
-  </si>
-  <si>
-    <t>Verify that the User can remove added product from the cart</t>
-  </si>
-  <si>
-    <t>1. 'Your cart' page is open</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Click '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>REMOVE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Environment: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.saucedemo.com/v1/index.html</t>
-    </r>
-  </si>
-  <si>
-    <t>The product was successfully removed from the cart</t>
-  </si>
-  <si>
-    <t>Product successfully removed</t>
+      <t>https://www.saucedemo.com/v1/cart.html</t>
+    </r>
+  </si>
+  <si>
+    <t>As a User I want to compelte the checkout process</t>
+  </si>
+  <si>
+    <t>PDR-07</t>
+  </si>
+  <si>
+    <t>CHK-08</t>
   </si>
 </sst>
 </file>
@@ -826,7 +955,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -834,11 +963,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -849,11 +993,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1189,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089AA1EE-42FB-4881-8A47-006ECAE7E7B0}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1355,7 @@
     <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="1" customWidth="1"/>
     <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
     <col min="11" max="12" width="25" style="1" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" style="1" customWidth="1"/>
@@ -1253,296 +1403,319 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="H8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="I8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="L8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="C9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="D10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="H10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="J10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D11" s="3"/>
@@ -1820,18 +1993,6 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test-scenario/Sauce Demo - Test Case.xlsx
+++ b/test-scenario/Sauce Demo - Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeProject\Java\MyProject\CucumberBDDProject\CucumberProject\test-scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A1E465-A1A7-4982-ABC5-8E5CF4559EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B9679F-508F-43CA-9A45-57F2F07CC904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{293820DC-2992-4C9C-B994-FC6B8BF047EE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
   <si>
     <t>No</t>
   </si>
@@ -910,6 +910,15 @@
   </si>
   <si>
     <t>CHK-08</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
   </si>
 </sst>
 </file>
@@ -941,7 +950,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -951,6 +960,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,7 +1003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1004,6 +1025,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1341,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089AA1EE-42FB-4881-8A47-006ECAE7E7B0}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,14 +1384,14 @@
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="20" style="1" customWidth="1"/>
     <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
     <col min="11" max="12" width="25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1374,7 +1407,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -1398,7 +1431,7 @@
       <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1415,7 +1448,9 @@
       <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>20</v>
@@ -1435,7 +1470,9 @@
       <c r="L2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="7"/>
+      <c r="M2" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -1450,7 +1487,9 @@
       <c r="D3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
         <v>34</v>
@@ -1470,7 +1509,9 @@
       <c r="L3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="M3" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -1485,7 +1526,9 @@
       <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
         <v>23</v>
@@ -1505,7 +1548,9 @@
       <c r="L4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="M4" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -1520,7 +1565,9 @@
       <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
         <v>24</v>
@@ -1540,7 +1587,9 @@
       <c r="L5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -1555,7 +1604,9 @@
       <c r="D6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>39</v>
@@ -1575,7 +1626,9 @@
       <c r="L6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="7"/>
+      <c r="M6" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -1590,7 +1643,9 @@
       <c r="D7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
         <v>44</v>
@@ -1610,7 +1665,9 @@
       <c r="L7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="7"/>
+      <c r="M7" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -1625,7 +1682,9 @@
       <c r="D8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
         <v>50</v>
@@ -1645,7 +1704,9 @@
       <c r="L8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="7"/>
+      <c r="M8" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -1660,7 +1721,9 @@
       <c r="D9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
         <v>63</v>
@@ -1680,7 +1743,9 @@
       <c r="L9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="7"/>
+      <c r="M9" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -1695,7 +1760,9 @@
       <c r="D10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
         <v>64</v>
@@ -1715,11 +1782,13 @@
       <c r="L10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1727,11 +1796,11 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1739,11 +1808,11 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1751,11 +1820,11 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1763,11 +1832,11 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1775,11 +1844,11 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1787,11 +1856,11 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1799,11 +1868,11 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1811,11 +1880,11 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1823,11 +1892,11 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="M19" s="9"/>
     </row>
     <row r="20" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1835,11 +1904,11 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1847,11 +1916,11 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="M21" s="9"/>
     </row>
     <row r="22" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1859,11 +1928,11 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1871,11 +1940,11 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1883,11 +1952,11 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1895,11 +1964,11 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="M25" s="9"/>
     </row>
     <row r="26" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1907,11 +1976,11 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -1919,11 +1988,11 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -1931,11 +2000,11 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1943,11 +2012,11 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+      <c r="M29" s="9"/>
     </row>
     <row r="30" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -1955,11 +2024,11 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="M30" s="9"/>
     </row>
     <row r="31" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -1967,11 +2036,11 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="M31" s="9"/>
     </row>
     <row r="32" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -1979,11 +2048,11 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -1991,7 +2060,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
+      <c r="M33" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test-scenario/Sauce Demo - Test Case.xlsx
+++ b/test-scenario/Sauce Demo - Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeProject\Java\MyProject\CucumberBDDProject\CucumberProject\test-scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B9679F-508F-43CA-9A45-57F2F07CC904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3DB69A-7A12-4196-9743-711ED4392AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{293820DC-2992-4C9C-B994-FC6B8BF047EE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
   <si>
     <t>No</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Actual Result</t>
-  </si>
-  <si>
-    <t>Result</t>
   </si>
   <si>
     <t>Login Feature</t>
@@ -910,9 +907,6 @@
   </si>
   <si>
     <t>CHK-08</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>Positive</t>
@@ -1372,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089AA1EE-42FB-4881-8A47-006ECAE7E7B0}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,10 +1385,9 @@
     <col min="9" max="9" width="20" style="1" customWidth="1"/>
     <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
     <col min="11" max="12" width="25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1431,362 +1424,332 @@
       <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="K2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="K3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="E6" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D11" s="3"/>
       <c r="E11" s="9"/>
       <c r="F11" s="3"/>
@@ -1796,9 +1759,8 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="9"/>
       <c r="F12" s="3"/>
@@ -1808,9 +1770,8 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D13" s="3"/>
       <c r="E13" s="9"/>
       <c r="F13" s="3"/>
@@ -1820,9 +1781,8 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D14" s="3"/>
       <c r="E14" s="9"/>
       <c r="F14" s="3"/>
@@ -1832,9 +1792,8 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D15" s="3"/>
       <c r="E15" s="9"/>
       <c r="F15" s="3"/>
@@ -1844,9 +1803,8 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D16" s="3"/>
       <c r="E16" s="9"/>
       <c r="F16" s="3"/>
@@ -1856,9 +1814,8 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="4:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D17" s="3"/>
       <c r="E17" s="9"/>
       <c r="F17" s="3"/>
@@ -1868,9 +1825,8 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="4:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D18" s="3"/>
       <c r="E18" s="9"/>
       <c r="F18" s="3"/>
@@ -1880,9 +1836,8 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="4:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" s="3"/>
       <c r="E19" s="9"/>
       <c r="F19" s="3"/>
@@ -1892,9 +1847,8 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="9"/>
-    </row>
-    <row r="20" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="4:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D20" s="3"/>
       <c r="E20" s="9"/>
       <c r="F20" s="3"/>
@@ -1904,9 +1858,8 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="9"/>
-    </row>
-    <row r="21" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="4:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
       <c r="E21" s="9"/>
       <c r="F21" s="3"/>
@@ -1916,9 +1869,8 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="4:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
       <c r="E22" s="9"/>
       <c r="F22" s="3"/>
@@ -1928,9 +1880,8 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="9"/>
-    </row>
-    <row r="23" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="4:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
       <c r="E23" s="9"/>
       <c r="F23" s="3"/>
@@ -1940,9 +1891,8 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="9"/>
-    </row>
-    <row r="24" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="4:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D24" s="3"/>
       <c r="E24" s="9"/>
       <c r="F24" s="3"/>
@@ -1952,9 +1902,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="9"/>
-    </row>
-    <row r="25" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="4:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
       <c r="E25" s="9"/>
       <c r="F25" s="3"/>
@@ -1964,9 +1913,8 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="9"/>
-    </row>
-    <row r="26" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="4:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
       <c r="E26" s="9"/>
       <c r="F26" s="3"/>
@@ -1976,9 +1924,8 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="9"/>
-    </row>
-    <row r="27" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="4:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
       <c r="E27" s="9"/>
       <c r="F27" s="3"/>
@@ -1988,9 +1935,8 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="9"/>
-    </row>
-    <row r="28" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="4:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
       <c r="E28" s="9"/>
       <c r="F28" s="3"/>
@@ -2000,9 +1946,8 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="9"/>
-    </row>
-    <row r="29" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="4:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
       <c r="E29" s="9"/>
       <c r="F29" s="3"/>
@@ -2012,9 +1957,8 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="9"/>
-    </row>
-    <row r="30" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="4:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
       <c r="E30" s="9"/>
       <c r="F30" s="3"/>
@@ -2024,9 +1968,8 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="9"/>
-    </row>
-    <row r="31" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="4:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
       <c r="E31" s="9"/>
       <c r="F31" s="3"/>
@@ -2036,9 +1979,8 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="9"/>
-    </row>
-    <row r="32" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="4:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D32" s="3"/>
       <c r="E32" s="9"/>
       <c r="F32" s="3"/>
@@ -2048,9 +1990,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="9"/>
-    </row>
-    <row r="33" spans="4:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="4:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="3"/>
       <c r="E33" s="9"/>
       <c r="F33" s="3"/>
@@ -2060,7 +2001,6 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
